--- a/errorData.xlsx
+++ b/errorData.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>SlNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +28,9 @@
     <t>Sagar</t>
   </si>
   <si>
+    <t>Present</t>
+  </si>
+  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -40,38 +40,32 @@
     <t>Dinesh</t>
   </si>
   <si>
+    <t>Absent</t>
+  </si>
+  <si>
     <t>Virat</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>77y</t>
   </si>
   <si>
     <t>rina</t>
   </si>
   <si>
-    <t>csc</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>inna</t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>undefined</t>
   </si>
   <si>
     <t>eeeeeee</t>
-  </si>
-  <si>
-    <t>mills</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -82,6 +76,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,152 +335,189 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>10.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C4" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>16.0</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>9.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>7777.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7777.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
         <v>10.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="C11" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/errorData.xlsx
+++ b/errorData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Att</t>
+  </si>
+  <si>
     <t>Attendance</t>
   </si>
   <si>
@@ -46,10 +49,7 @@
     <t>Virat</t>
   </si>
   <si>
-    <t>77y</t>
-  </si>
-  <si>
-    <t>rina</t>
+    <t>Parker</t>
   </si>
   <si>
     <t>null</t>
@@ -58,7 +58,22 @@
     <t>undefined</t>
   </si>
   <si>
-    <t>eeeeeee</t>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Trucker</t>
+  </si>
+  <si>
+    <t>Hennesy</t>
+  </si>
+  <si>
+    <t>Tim Rose</t>
   </si>
 </sst>
 </file>
@@ -96,12 +111,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -335,10 +354,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>10.0</v>
@@ -347,12 +369,15 @@
         <v>16.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>9.0</v>
@@ -361,12 +386,15 @@
         <v>15.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>10.0</v>
@@ -375,12 +403,15 @@
         <v>17.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>10.0</v>
@@ -389,12 +420,15 @@
         <v>16.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>9.0</v>
@@ -403,15 +437,27 @@
         <v>14.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +470,10 @@
       <c r="C8" s="1">
         <v>15.0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -432,7 +481,13 @@
       <c r="A9" s="1">
         <v>12.0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -447,12 +502,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>10.0</v>
@@ -461,12 +519,15 @@
         <v>17.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>10.0</v>
@@ -475,12 +536,15 @@
         <v>16.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.0</v>
@@ -489,7 +553,10 @@
         <v>14.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -503,7 +570,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -516,8 +586,110 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/errorData.xlsx
+++ b/errorData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -22,18 +22,12 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Att</t>
-  </si>
-  <si>
     <t>Attendance</t>
   </si>
   <si>
     <t>Sagar</t>
   </si>
   <si>
-    <t>Present</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -41,9 +35,6 @@
   </si>
   <si>
     <t>Dinesh</t>
-  </si>
-  <si>
-    <t>Absent</t>
   </si>
   <si>
     <t>Virat</t>
@@ -118,13 +109,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -354,13 +345,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>10.0</v>
@@ -368,16 +356,14 @@
       <c r="C2" s="1">
         <v>16.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>9.0</v>
@@ -385,16 +371,14 @@
       <c r="C3" s="1">
         <v>15.0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>10.0</v>
@@ -402,16 +386,14 @@
       <c r="C4" s="1">
         <v>17.0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>10.0</v>
@@ -419,16 +401,14 @@
       <c r="C5" s="1">
         <v>16.0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>9.0</v>
@@ -436,16 +416,14 @@
       <c r="C6" s="1">
         <v>14.0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>10.0</v>
@@ -453,12 +431,10 @@
       <c r="C7" s="1">
         <v>17.0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -470,11 +446,8 @@
       <c r="C8" s="1">
         <v>15.0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -482,13 +455,10 @@
         <v>12.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -496,21 +466,19 @@
         <v>12.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>10.0</v>
@@ -518,177 +486,138 @@
       <c r="C11" s="1">
         <v>17.0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>14.0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>10.0</v>
       </c>
       <c r="C16" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>9.0</v>
       </c>
       <c r="C18" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>9.0</v>
       </c>
       <c r="C19" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>18.0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9.0</v>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D20" s="4">
         <v>4.0</v>
       </c>
     </row>

--- a/errorData.xlsx
+++ b/errorData.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLSX-react\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA3E01-76C2-4D45-8E92-6830FB95CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -65,25 +74,105 @@
   </si>
   <si>
     <t>Tim Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jack </t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>dora</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>jacky</t>
+  </si>
+  <si>
+    <t>Chinjan</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>tele</t>
+  </si>
+  <si>
+    <t>moka</t>
+  </si>
+  <si>
+    <t>joyce</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>buttler</t>
+  </si>
+  <si>
+    <t>spokes</t>
+  </si>
+  <si>
+    <t>Stonies</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>hetmyer</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>jwt</t>
+  </si>
+  <si>
+    <t>joi</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>nodemon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -93,43 +182,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -319,140 +411,145 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7777.0</v>
+        <v>7777</v>
       </c>
       <c r="B8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -461,9 +558,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -476,37 +573,37 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -521,7 +618,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -535,93 +632,513 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
-        <v>4.0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>